--- a/價格.xlsx
+++ b/價格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Solar-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F08B5C-0A48-475C-9329-92F5C3467273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF2A3E-0577-4A9A-B9CF-C73B22A2B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n76e003</t>
   </si>
@@ -44,11 +44,17 @@
   <si>
     <t>BL8032CB6TR</t>
   </si>
+  <si>
+    <t>PS9115F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="26" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -91,9 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="26" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -247,6 +256,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>31403</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2B78EC-2AA2-43D8-AEDC-7D72274DA5C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="0"/>
+          <a:ext cx="10646063" cy="2118544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -513,43 +566,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I1:I29"/>
+  <dimension ref="I1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="14" width="9.125" style="1"/>
+    <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="9:15">
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="9:9">
+    <row r="2" spans="9:15">
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="9:9">
+    <row r="15" spans="9:15">
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="9:9">
+    <row r="16" spans="9:15">
       <c r="I16" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="9:9">
+    <row r="17" spans="9:15">
+      <c r="O17" s="2">
+        <v>7.4300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:15">
       <c r="I28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:15">
       <c r="I29" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,7 +620,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>